--- a/data/quiz181029.xlsx
+++ b/data/quiz181029.xlsx
@@ -1,36 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11109"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/coop2711/Google 드라이브/Works/Class/Statistics/R.WD/Class_data/class201802/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C4800F-0B93-8249-BA87-84A13644C287}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26100" windowHeight="17060"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26100" windowHeight="17060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="564">
   <si>
     <t>과목명 : 생활속의통계학-01(005036)</t>
   </si>
@@ -1581,9 +1582,6 @@
   <si>
     <t>A</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Beer.17</t>
   </si>
   <si>
     <t>나</t>
@@ -1796,8 +1794,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1976,7 +1974,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="기본" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2287,14 +2285,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="N150" sqref="N150"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
@@ -2307,7 +2305,7 @@
     <col min="9" max="13" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2325,7 +2323,7 @@
       <c r="M1" s="6"/>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2369,7 +2367,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2394,22 +2392,22 @@
         <v>52</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="N3" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2437,19 +2435,19 @@
         <v>510</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="N4" s="9" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="32">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2474,13 +2472,13 @@
         <v>58</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>510</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="M5" s="8">
         <v>17</v>
@@ -2489,7 +2487,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2514,13 +2512,13 @@
         <v>61</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="M6" s="8">
         <v>3</v>
@@ -2529,7 +2527,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2561,7 +2559,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="32">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2586,22 +2584,22 @@
         <v>67</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>510</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N8" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2629,10 +2627,10 @@
         <v>509</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="M9" s="8">
         <v>2</v>
@@ -2641,7 +2639,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="32">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2669,10 +2667,10 @@
         <v>509</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="M10" s="8" t="s">
         <v>511</v>
@@ -2681,7 +2679,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2706,22 +2704,22 @@
         <v>77</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N11" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="32">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2753,7 +2751,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2778,22 +2776,22 @@
         <v>83</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N13" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2824,16 +2822,16 @@
         <v>510</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="N14" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="32">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2861,10 +2859,10 @@
         <v>509</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="M15" s="8">
         <v>31</v>
@@ -2873,7 +2871,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2898,22 +2896,22 @@
         <v>92</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N16" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2938,22 +2936,22 @@
         <v>95</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L17" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="M17" s="8" t="s">
         <v>544</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>545</v>
       </c>
       <c r="N17" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2985,7 +2983,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="32">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3019,13 +3017,13 @@
         <v>511</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="N19" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="32">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3050,22 +3048,22 @@
         <v>105</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L20" s="8" t="s">
         <v>511</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="N20" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="32">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3090,13 +3088,13 @@
         <v>107</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M21" s="8" t="s">
         <v>511</v>
@@ -3105,7 +3103,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="32">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3130,22 +3128,22 @@
         <v>110</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K22" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="M22" s="8" t="s">
         <v>516</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>523</v>
-      </c>
-      <c r="M22" s="8" t="s">
-        <v>517</v>
       </c>
       <c r="N22" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="32">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3170,22 +3168,22 @@
         <v>113</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K23" s="8" t="s">
         <v>509</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="N23" s="9" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3210,22 +3208,22 @@
         <v>116</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N24" s="9" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3250,13 +3248,13 @@
         <v>119</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M25" s="8">
         <v>2</v>
@@ -3265,7 +3263,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3290,22 +3288,22 @@
         <v>122</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K26" s="8" t="s">
         <v>510</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N26" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="32">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3337,7 +3335,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="32">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3362,13 +3360,13 @@
         <v>128</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="M28" s="8" t="s">
         <v>511</v>
@@ -3377,7 +3375,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3405,7 +3403,7 @@
         <v>509</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L29" s="8">
         <v>17</v>
@@ -3417,7 +3415,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3442,22 +3440,22 @@
         <v>134</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="N30" s="9" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3482,10 +3480,10 @@
         <v>137</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="L31" s="8">
         <v>2</v>
@@ -3497,7 +3495,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3522,22 +3520,22 @@
         <v>140</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="N32" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="32">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3562,22 +3560,22 @@
         <v>143</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K33" s="8" t="s">
         <v>510</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="N33" s="9" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="32">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3602,10 +3600,10 @@
         <v>146</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L34" s="8">
         <v>31</v>
@@ -3617,7 +3615,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="32">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3649,7 +3647,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="32">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3681,7 +3679,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3706,22 +3704,22 @@
         <v>155</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K37" s="8" t="s">
         <v>510</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N37" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3746,22 +3744,22 @@
         <v>158</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M38" s="8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="N38" s="9" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3786,22 +3784,22 @@
         <v>161</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N39" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3826,22 +3824,22 @@
         <v>164</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N40" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="32">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3866,22 +3864,22 @@
         <v>167</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N41" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3913,7 +3911,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3938,13 +3936,13 @@
         <v>173</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="M43" s="8">
         <v>3</v>
@@ -3953,7 +3951,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3985,7 +3983,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4010,13 +4008,13 @@
         <v>179</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K45" s="8" t="s">
         <v>510</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="M45" s="8">
         <v>17</v>
@@ -4025,7 +4023,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4057,7 +4055,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="32">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4085,19 +4083,19 @@
         <v>509</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N47" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4122,22 +4120,22 @@
         <v>188</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M48" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N48" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4162,13 +4160,13 @@
         <v>191</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M49" s="8" t="s">
         <v>511</v>
@@ -4177,7 +4175,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="32">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4202,13 +4200,13 @@
         <v>194</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K50" s="8" t="s">
         <v>510</v>
       </c>
       <c r="L50" s="8" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="M50" s="8" t="s">
         <v>511</v>
@@ -4217,7 +4215,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="32">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4242,22 +4240,22 @@
         <v>197</v>
       </c>
       <c r="J51" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="L51" s="8" t="s">
         <v>519</v>
       </c>
-      <c r="K51" s="8" t="s">
-        <v>513</v>
-      </c>
-      <c r="L51" s="8" t="s">
-        <v>520</v>
-      </c>
       <c r="M51" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N51" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4282,22 +4280,22 @@
         <v>201</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L52" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="M52" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N52" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="32">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4329,7 +4327,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4354,22 +4352,22 @@
         <v>207</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K54" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L54" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="M54" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N54" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" ht="32">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4394,13 +4392,13 @@
         <v>210</v>
       </c>
       <c r="J55" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="M55" s="8">
         <v>31</v>
@@ -4409,7 +4407,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" ht="32">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4434,22 +4432,22 @@
         <v>213</v>
       </c>
       <c r="J56" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="L56" s="8" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="M56" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="N56" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4480,16 +4478,16 @@
         <v>510</v>
       </c>
       <c r="L57" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="M57" s="8" t="s">
         <v>546</v>
-      </c>
-      <c r="M57" s="8" t="s">
-        <v>547</v>
       </c>
       <c r="N57" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4520,16 +4518,16 @@
         <v>510</v>
       </c>
       <c r="L58" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="M58" s="8" t="s">
         <v>524</v>
-      </c>
-      <c r="M58" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="N58" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4554,22 +4552,22 @@
         <v>222</v>
       </c>
       <c r="J59" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M59" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N59" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4594,22 +4592,22 @@
         <v>225</v>
       </c>
       <c r="J60" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K60" s="8" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L60" s="8">
         <v>31</v>
       </c>
       <c r="M60" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="N60" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4634,22 +4632,22 @@
         <v>228</v>
       </c>
       <c r="J61" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="M61" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N61" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" ht="32">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4674,22 +4672,22 @@
         <v>231</v>
       </c>
       <c r="J62" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L62" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M62" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N62" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" ht="32">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4714,22 +4712,22 @@
         <v>234</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M63" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N63" s="9" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4754,22 +4752,22 @@
         <v>32</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K64" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="L64" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="M64" s="8" t="s">
         <v>533</v>
-      </c>
-      <c r="M64" s="8" t="s">
-        <v>534</v>
       </c>
       <c r="N64" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4797,7 +4795,7 @@
         <v>510</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L65" s="8">
         <v>17</v>
@@ -4809,7 +4807,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" ht="32">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4834,7 +4832,7 @@
         <v>240</v>
       </c>
       <c r="J66" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K66" s="8" t="s">
         <v>510</v>
@@ -4843,13 +4841,13 @@
         <v>511</v>
       </c>
       <c r="M66" s="8" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="N66" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" ht="32">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -4874,13 +4872,13 @@
         <v>243</v>
       </c>
       <c r="J67" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K67" s="8" t="s">
         <v>510</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M67" s="8">
         <v>3</v>
@@ -4889,7 +4887,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" ht="32">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -4914,22 +4912,22 @@
         <v>246</v>
       </c>
       <c r="J68" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K68" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L68" s="8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="M68" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N68" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" ht="32">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -4969,7 +4967,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" ht="32">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -4994,10 +4992,10 @@
         <v>252</v>
       </c>
       <c r="J70" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K70" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L70" s="8">
         <v>17</v>
@@ -5009,7 +5007,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5034,13 +5032,13 @@
         <v>255</v>
       </c>
       <c r="J71" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K71" s="8" t="s">
         <v>510</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="M71" s="8">
         <v>2</v>
@@ -5049,7 +5047,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5077,19 +5075,19 @@
         <v>509</v>
       </c>
       <c r="K72" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L72" s="8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="M72" s="8" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="N72" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5114,22 +5112,22 @@
         <v>261</v>
       </c>
       <c r="J73" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M73" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="N73" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5154,22 +5152,22 @@
         <v>264</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K74" s="8" t="s">
         <v>510</v>
       </c>
       <c r="L74" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="M74" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N74" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5197,10 +5195,10 @@
         <v>509</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L75" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M75" s="8" t="s">
         <v>511</v>
@@ -5209,7 +5207,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5240,16 +5238,16 @@
         <v>509</v>
       </c>
       <c r="L76" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M76" s="8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="N76" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5274,7 +5272,7 @@
         <v>273</v>
       </c>
       <c r="J77" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K77" s="8" t="s">
         <v>510</v>
@@ -5283,13 +5281,13 @@
         <v>2</v>
       </c>
       <c r="M77" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N77" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" ht="32">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5314,22 +5312,22 @@
         <v>276</v>
       </c>
       <c r="J78" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L78" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M78" s="8" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="N78" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" ht="32">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -5354,22 +5352,22 @@
         <v>279</v>
       </c>
       <c r="J79" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M79" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="N79" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -5398,16 +5396,16 @@
         <v>510</v>
       </c>
       <c r="L80" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="M80" s="8" t="s">
         <v>552</v>
-      </c>
-      <c r="M80" s="8" t="s">
-        <v>553</v>
       </c>
       <c r="N80" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" ht="32">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -5432,23 +5430,23 @@
         <v>284</v>
       </c>
       <c r="J81" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K81" s="8" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L81" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="M81" s="8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="N81" s="9" t="s">
         <v>44</v>
       </c>
       <c r="O81" s="4"/>
     </row>
-    <row r="82" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" ht="32">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -5473,13 +5471,13 @@
         <v>287</v>
       </c>
       <c r="J82" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K82" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L82" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M82" s="8" t="s">
         <v>511</v>
@@ -5488,7 +5486,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -5513,22 +5511,22 @@
         <v>290</v>
       </c>
       <c r="J83" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K83" s="8" t="s">
         <v>510</v>
       </c>
       <c r="L83" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M83" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="N83" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" ht="32">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -5553,22 +5551,22 @@
         <v>293</v>
       </c>
       <c r="J84" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="K84" s="8" t="s">
         <v>515</v>
       </c>
-      <c r="K84" s="8" t="s">
-        <v>516</v>
-      </c>
       <c r="L84" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M84" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N84" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" ht="32">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -5593,22 +5591,22 @@
         <v>296</v>
       </c>
       <c r="J85" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K85" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L85" s="8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="M85" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N85" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -5633,22 +5631,22 @@
         <v>299</v>
       </c>
       <c r="J86" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K86" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L86" s="8">
         <v>2</v>
       </c>
       <c r="M86" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N86" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -5673,22 +5671,22 @@
         <v>302</v>
       </c>
       <c r="J87" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="K87" s="8" t="s">
         <v>515</v>
-      </c>
-      <c r="K87" s="8" t="s">
-        <v>516</v>
       </c>
       <c r="L87" s="8" t="s">
         <v>511</v>
       </c>
       <c r="M87" s="8" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="N87" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" ht="32">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -5713,22 +5711,22 @@
         <v>305</v>
       </c>
       <c r="J88" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K88" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L88" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="M88" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N88" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -5760,7 +5758,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -5788,19 +5786,19 @@
         <v>509</v>
       </c>
       <c r="K90" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L90" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="M90" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N90" s="9" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" ht="32">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -5828,19 +5826,19 @@
         <v>509</v>
       </c>
       <c r="K91" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L91" s="8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="M91" s="8" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="N91" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -5865,22 +5863,22 @@
         <v>317</v>
       </c>
       <c r="J92" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K92" s="8" t="s">
         <v>510</v>
       </c>
       <c r="L92" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="M92" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N92" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -5908,19 +5906,19 @@
         <v>509</v>
       </c>
       <c r="K93" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L93" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="M93" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N93" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" ht="32">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -5945,22 +5943,22 @@
         <v>323</v>
       </c>
       <c r="J94" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K94" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L94" s="8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="M94" s="8" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="N94" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -5988,7 +5986,7 @@
         <v>510</v>
       </c>
       <c r="K95" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="L95" s="8">
         <v>31</v>
@@ -6000,7 +5998,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -6025,22 +6023,22 @@
         <v>329</v>
       </c>
       <c r="J96" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K96" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L96" s="8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="M96" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N96" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" ht="32">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -6065,10 +6063,10 @@
         <v>332</v>
       </c>
       <c r="J97" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K97" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L97" s="8">
         <v>17</v>
@@ -6080,7 +6078,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" ht="32">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -6112,7 +6110,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -6140,19 +6138,19 @@
         <v>509</v>
       </c>
       <c r="K99" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L99" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="M99" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N99" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" ht="32">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -6183,16 +6181,16 @@
         <v>510</v>
       </c>
       <c r="L100" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="M100" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="N100" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -6224,7 +6222,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -6264,7 +6262,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -6289,22 +6287,22 @@
         <v>350</v>
       </c>
       <c r="J103" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K103" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L103" s="8">
         <v>17</v>
       </c>
       <c r="M103" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="N103" s="9" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" ht="32">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -6332,10 +6330,10 @@
         <v>509</v>
       </c>
       <c r="K104" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L104" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M104" s="8" t="s">
         <v>511</v>
@@ -6344,7 +6342,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -6369,22 +6367,22 @@
         <v>356</v>
       </c>
       <c r="J105" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K105" s="8" t="s">
         <v>510</v>
       </c>
       <c r="L105" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="M105" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N105" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -6409,22 +6407,22 @@
         <v>359</v>
       </c>
       <c r="J106" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K106" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L106" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M106" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N106" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" ht="32">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -6449,22 +6447,22 @@
         <v>362</v>
       </c>
       <c r="J107" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K107" s="8" t="s">
         <v>510</v>
       </c>
       <c r="L107" s="8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="M107" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N107" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -6492,19 +6490,19 @@
         <v>509</v>
       </c>
       <c r="K108" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L108" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M108" s="8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="N108" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -6532,19 +6530,19 @@
         <v>509</v>
       </c>
       <c r="K109" s="8" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L109" s="8" t="s">
         <v>511</v>
       </c>
       <c r="M109" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N109" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -6569,22 +6567,22 @@
         <v>371</v>
       </c>
       <c r="J110" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="K110" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="L110" s="8" t="s">
         <v>519</v>
       </c>
-      <c r="K110" s="8" t="s">
-        <v>513</v>
-      </c>
-      <c r="L110" s="8" t="s">
-        <v>520</v>
-      </c>
       <c r="M110" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N110" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -6609,22 +6607,22 @@
         <v>374</v>
       </c>
       <c r="J111" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K111" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L111" s="8" t="s">
         <v>511</v>
       </c>
       <c r="M111" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N111" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -6649,13 +6647,13 @@
         <v>377</v>
       </c>
       <c r="J112" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K112" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L112" s="8" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="M112" s="8" t="s">
         <v>511</v>
@@ -6664,7 +6662,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="113" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" ht="32">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -6689,22 +6687,22 @@
         <v>380</v>
       </c>
       <c r="J113" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="K113" s="8" t="s">
         <v>515</v>
       </c>
-      <c r="K113" s="8" t="s">
-        <v>516</v>
-      </c>
       <c r="L113" s="8" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="M113" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="N113" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -6735,16 +6733,16 @@
         <v>510</v>
       </c>
       <c r="L114" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="M114" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N114" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" ht="32">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -6769,22 +6767,22 @@
         <v>386</v>
       </c>
       <c r="J115" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K115" s="8" t="s">
         <v>510</v>
       </c>
       <c r="L115" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="M115" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N115" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -6812,19 +6810,19 @@
         <v>509</v>
       </c>
       <c r="K116" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L116" s="8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="M116" s="8" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="N116" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -6849,22 +6847,22 @@
         <v>392</v>
       </c>
       <c r="J117" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K117" s="8" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L117" s="8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="M117" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="N117" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -6889,22 +6887,22 @@
         <v>395</v>
       </c>
       <c r="J118" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K118" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L118" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="M118" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N118" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -6929,13 +6927,13 @@
         <v>398</v>
       </c>
       <c r="J119" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K119" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L119" s="8" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="M119" s="8" t="s">
         <v>511</v>
@@ -6944,7 +6942,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -6972,19 +6970,19 @@
         <v>509</v>
       </c>
       <c r="K120" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L120" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M120" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N120" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -7012,19 +7010,19 @@
         <v>509</v>
       </c>
       <c r="K121" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L121" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="M121" s="8" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="N121" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -7052,19 +7050,19 @@
         <v>509</v>
       </c>
       <c r="K122" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L122" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M122" s="8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="N122" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -7098,13 +7096,13 @@
         <v>17</v>
       </c>
       <c r="M123" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="N123" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -7136,7 +7134,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -7161,22 +7159,22 @@
         <v>416</v>
       </c>
       <c r="J125" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K125" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L125" s="8" t="s">
         <v>511</v>
       </c>
       <c r="M125" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N125" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="126" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" ht="32">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -7201,22 +7199,22 @@
         <v>419</v>
       </c>
       <c r="J126" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K126" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L126" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M126" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N126" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -7241,22 +7239,22 @@
         <v>422</v>
       </c>
       <c r="J127" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K127" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L127" s="8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="M127" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N127" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="128" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" ht="32">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -7281,22 +7279,22 @@
         <v>425</v>
       </c>
       <c r="J128" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K128" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L128" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M128" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N128" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="129" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" ht="32">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -7327,7 +7325,7 @@
         <v>510</v>
       </c>
       <c r="L129" s="8" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="M129" s="8">
         <v>2</v>
@@ -7336,7 +7334,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="130" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" ht="32">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -7361,22 +7359,22 @@
         <v>431</v>
       </c>
       <c r="J130" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K130" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L130" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="M130" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N130" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="131" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" ht="32">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -7404,19 +7402,19 @@
         <v>509</v>
       </c>
       <c r="K131" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="L131" s="8" t="s">
         <v>513</v>
       </c>
-      <c r="L131" s="8" t="s">
-        <v>514</v>
-      </c>
       <c r="M131" s="8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="N131" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -7441,22 +7439,22 @@
         <v>437</v>
       </c>
       <c r="J132" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K132" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L132" s="8">
         <v>2</v>
       </c>
       <c r="M132" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="N132" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -7481,10 +7479,10 @@
         <v>440</v>
       </c>
       <c r="J133" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K133" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L133" s="8">
         <v>31</v>
@@ -7496,7 +7494,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="134" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" ht="32">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -7527,16 +7525,16 @@
         <v>510</v>
       </c>
       <c r="L134" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M134" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N134" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="135" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" ht="32">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -7564,19 +7562,19 @@
         <v>509</v>
       </c>
       <c r="K135" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L135" s="8" t="s">
         <v>511</v>
       </c>
       <c r="M135" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N135" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -7608,7 +7606,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -7633,22 +7631,22 @@
         <v>452</v>
       </c>
       <c r="J137" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="K137" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="L137" s="8" t="s">
         <v>519</v>
       </c>
-      <c r="K137" s="8" t="s">
-        <v>513</v>
-      </c>
-      <c r="L137" s="8" t="s">
-        <v>520</v>
-      </c>
       <c r="M137" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N137" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -7673,22 +7671,22 @@
         <v>455</v>
       </c>
       <c r="J138" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K138" s="8" t="s">
         <v>510</v>
       </c>
       <c r="L138" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M138" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N138" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -7713,22 +7711,22 @@
         <v>458</v>
       </c>
       <c r="J139" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K139" s="8" t="s">
         <v>510</v>
       </c>
       <c r="L139" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="M139" s="8" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="N139" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -7753,10 +7751,10 @@
         <v>461</v>
       </c>
       <c r="J140" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K140" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L140" s="8">
         <v>3</v>
@@ -7768,7 +7766,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -7793,22 +7791,22 @@
         <v>464</v>
       </c>
       <c r="J141" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K141" s="8" t="s">
         <v>510</v>
       </c>
       <c r="L141" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="M141" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N141" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -7840,7 +7838,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="143" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" ht="32">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -7865,22 +7863,22 @@
         <v>470</v>
       </c>
       <c r="J143" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K143" s="8" t="s">
         <v>510</v>
       </c>
       <c r="L143" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="M143" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N143" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -7905,22 +7903,22 @@
         <v>473</v>
       </c>
       <c r="J144" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K144" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L144" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="M144" s="8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="N144" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -7951,16 +7949,16 @@
         <v>510</v>
       </c>
       <c r="L145" s="8" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="M145" s="8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N145" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="146" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" ht="32">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -7985,13 +7983,13 @@
         <v>479</v>
       </c>
       <c r="J146" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K146" s="8" t="s">
         <v>510</v>
       </c>
       <c r="L146" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="M146" s="8">
         <v>31</v>
@@ -8000,7 +7998,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -8025,22 +8023,22 @@
         <v>482</v>
       </c>
       <c r="J147" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K147" s="8" t="s">
         <v>510</v>
       </c>
       <c r="L147" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M147" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N147" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="148" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" ht="32">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -8068,19 +8066,19 @@
         <v>509</v>
       </c>
       <c r="K148" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L148" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M148" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N148" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -8105,13 +8103,13 @@
         <v>488</v>
       </c>
       <c r="J149" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K149" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L149" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M149" s="8" t="s">
         <v>511</v>
@@ -8120,7 +8118,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -8145,22 +8143,22 @@
         <v>491</v>
       </c>
       <c r="J150" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="K150" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="L150" s="8" t="s">
         <v>519</v>
       </c>
-      <c r="K150" s="8" t="s">
-        <v>513</v>
-      </c>
-      <c r="L150" s="8" t="s">
-        <v>520</v>
-      </c>
       <c r="M150" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="N150" s="11" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="151" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" ht="32">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -8185,22 +8183,22 @@
         <v>494</v>
       </c>
       <c r="J151" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="K151" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="L151" s="8" t="s">
         <v>519</v>
       </c>
-      <c r="K151" s="8" t="s">
-        <v>513</v>
-      </c>
-      <c r="L151" s="8" t="s">
-        <v>520</v>
-      </c>
       <c r="M151" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N151" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="152" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" ht="32">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -8228,19 +8226,19 @@
         <v>510</v>
       </c>
       <c r="K152" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L152" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="M152" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N152" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="153" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" ht="32">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -8265,22 +8263,22 @@
         <v>500</v>
       </c>
       <c r="J153" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K153" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L153" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M153" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N153" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="154" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" ht="32">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -8305,22 +8303,22 @@
         <v>503</v>
       </c>
       <c r="J154" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K154" s="8" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L154" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="M154" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="N154" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14">
       <c r="A155" s="1">
         <v>153</v>
       </c>
